--- a/ConsumoIPsLibre.xlsx
+++ b/ConsumoIPsLibre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IpsLibres_20231126" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IpsLibres_20240105" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,68 +467,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1559</v>
+        <v>44795</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>150.50.0.0/16</t>
+          <t>150.50.0.0/18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Servidores</t>
+          <t>DC_01-Lan_Servidores_1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65536</v>
+        <v>16384</v>
       </c>
       <c r="E2" t="n">
         <v>2000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>12.21%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1562</v>
+        <v>45760</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>172.16.0.0/22</t>
+          <t>150.50.64.0/18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Interna BD producción</t>
+          <t>DC_01-Lan_Servidores_2</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1024</v>
+        <v>16384</v>
       </c>
       <c r="E3" t="n">
-        <v>1022</v>
+        <v>2000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>12.21%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1690</v>
+        <v>45705</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>172.16.16.0/24</t>
+          <t>172.16.17.0/24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-Mgmt</t>
+          <t>DC_01-MENTA - SDDC-DPortGroup-vMotion</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,16 +545,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1696</v>
+        <v>45745</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>172.16.17.0/24</t>
+          <t>172.16.18.0/24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-vMotion</t>
+          <t>DC_01-MENTA - SDDC-DPortGroup-VTEP_VXLAN</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -571,42 +571,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1699</v>
+        <v>45748</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>172.16.18.0/24</t>
+          <t>172.16.19.0/25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-VTEP_VXLAN</t>
+          <t>DC_01-MENTA - Dynatrace_Cluster</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E6" t="n">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.44%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1711</v>
+        <v>45708</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>172.16.19.0/25</t>
+          <t>172.16.19.128/25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MENTA - Dynatrace_Cluster</t>
+          <t>DC_01-MENTA - Dynatrace_Colectores</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -623,42 +623,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1714</v>
+        <v>45751</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>172.16.19.128/25</t>
+          <t>172.16.20.128/28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MENTA - Dynatrace_Colectores</t>
+          <t>DC_01-MENTA - SDDC-DPortGroup-VSAN</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>87.5%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1693</v>
+        <v>45754</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>172.16.20.128/28</t>
+          <t>172.16.20.144/28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-VSAN</t>
+          <t>DC_01-MENTA - Edge_to_DLR</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -675,16 +675,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1708</v>
+        <v>45757</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>172.16.20.144/28</t>
+          <t>172.16.20.160/28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MENTA - Edge_to_DLR</t>
+          <t>DC_01-MENTA - Uplink01</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -701,16 +701,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1702</v>
+        <v>45791</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>172.16.20.160/28</t>
+          <t>172.16.20.176/28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MENTA - Uplink01</t>
+          <t>DC_01-MENTA - Uplink02</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -727,302 +727,302 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1705</v>
+        <v>44791</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>172.16.20.176/28</t>
+          <t>172.16.20.224/29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MENTA - Uplink02</t>
+          <t>DC_01-MENTA - BGP-Edge</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>62.5%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1687</v>
+        <v>45039</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>172.16.20.224/29</t>
+          <t>172.17.0.0/22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MENTA - BGP-Edge</t>
+          <t>DC_01-Interna no BD producción</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>793</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>77.44%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1565</v>
+        <v>43231</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>172.17.0.0/22</t>
+          <t>172.18.1.0/24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Interna no BD producción</t>
+          <t>DC_01-Interna Desarrollo</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E14" t="n">
-        <v>1019</v>
+        <v>115</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>99.51%</t>
+          <t>44.92%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1608</v>
+        <v>44690</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>172.18.1.0/24</t>
+          <t>172.18.3.0/24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Interna Desarrollo</t>
+          <t>DC_01-Interna Calidad</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>256</v>
       </c>
       <c r="E15" t="n">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>60.94%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1605</v>
+        <v>43647</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>172.18.3.0/24</t>
+          <t>172.19.0.0/21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Interna Calidad</t>
+          <t>DC_01-Gestion</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>256</v>
+        <v>2048</v>
       </c>
       <c r="E16" t="n">
-        <v>254</v>
+        <v>1711</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>83.54%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1568</v>
+        <v>45702</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>172.19.0.0/21</t>
+          <t>172.19.16.0/24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gestion</t>
+          <t>DC_01-Respaldo Servidores Fisicos</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2048</v>
+        <v>256</v>
       </c>
       <c r="E17" t="n">
-        <v>2000</v>
+        <v>254</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>97.66%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1574</v>
+        <v>45587</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>172.19.16.0/24</t>
+          <t>172.19.18.0/25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Respaldo Servidores Fisicos</t>
+          <t>DC_01-Respaldo Servidores Virtuales_LAN</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E18" t="n">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.44%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1577</v>
+        <v>45289</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>172.19.18.0/25</t>
+          <t>172.19.19.0/24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Respaldo Servidores Virtuales_LAN</t>
+          <t>DC_01-Gestion_excepcion</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E19" t="n">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>83.2%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1571</v>
+        <v>45691</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>172.19.19.0/24</t>
+          <t>172.19.22.0/28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gestion_excepcion</t>
+          <t>DC_01-GESTION POWER 9</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1642</v>
+        <v>45286</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>172.19.22.0/28</t>
+          <t>172.19.50.0/24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GESTION POWER 9</t>
+          <t>TEST_TEST_30_11</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1602</v>
+        <v>45283</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>172.26.0.0/29</t>
+          <t>172.19.51.0/24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DMZ2 Desarrollo</t>
+          <t>TEST_TEST_30_11_2</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1717</v>
+        <v>45280</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>172.26.56.0/24</t>
+          <t>172.19.52.0/24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TANZU K8s PaaS -  DMZ Calidad</t>
+          <t>TEST_TEST_30_11_3</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1039,16 +1039,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1720</v>
+        <v>45277</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>172.26.57.0/24</t>
+          <t>172.19.54.0/24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TANZU k8s PaaS - DMZ Produccion</t>
+          <t>TEST_TEST_30_11_4</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1065,16 +1065,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1723</v>
+        <v>45274</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>172.26.58.0/24</t>
+          <t>172.19.55.0/24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TANZU k8s PaaS - DMZ Desarrollo</t>
+          <t>TEST_TEST_30_11_5</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1091,16 +1091,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1726</v>
+        <v>45271</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>172.26.59.0/24</t>
+          <t>172.19.56.0/24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TANZU K8s PaaS - Managment</t>
+          <t>TEST_TEST_30_11_6</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1117,1004 +1117,1004 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1593</v>
+        <v>45036</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>172.27.0.0/29</t>
+          <t>172.19.57.0/24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DMZ2 Calidad</t>
+          <t>TEST_TEST_30_11_7</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1581</v>
+        <v>45333</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>172.30.0.0/24</t>
+          <t>172.26.0.0/29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Callcenter</t>
+          <t>DC_01-DMZ2 Desarrollo 2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>254</v>
+        <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1617</v>
+        <v>43150</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>191.169.40.128/25</t>
+          <t>172.26.56.0/24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Extranet_Terceros (SUNAT)</t>
+          <t>DC_01-TANZU K8s PaaS -  DMZ Calidad</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E29" t="n">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>71.09%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1651</v>
+        <v>43126</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>192.168.0.0/29</t>
+          <t>172.26.57.0/24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VLAN0192 (RAC)</t>
+          <t>DC_01-TANZU k8s PaaS - DMZ Produccion</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>91.02%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1654</v>
+        <v>43057</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>192.168.0.8/29</t>
+          <t>172.26.58.0/24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>VLAN0193 (RAC)</t>
+          <t>DC_01-TANZU k8s PaaS - DMZ Desarrollo</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>73.44%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1657</v>
+        <v>45775</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>192.168.0.16/29</t>
+          <t>172.26.59.0/24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VLAN0194 (RAC)</t>
+          <t>DC_01-TANZU K8s PaaS - Managment</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>94.14%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1660</v>
+        <v>46152</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>192.168.0.32/29</t>
+          <t>172.27.0.0/29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VLAN0197 (RAC)</t>
+          <t>DC_01-DMZ2 Calidad 2</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1529</v>
+        <v>45339</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>192.168.20.0/24</t>
+          <t>172.30.0.0/24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DMZ Sello de tiempo</t>
+          <t>DC_01-Callcenter</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>256</v>
       </c>
       <c r="E34" t="n">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>83.59%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1547</v>
+        <v>43225</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>192.168.30.0/24</t>
+          <t>191.169.40.128/25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DMZ1</t>
+          <t>DC_01-Extranet_Terceros (SUNAT)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E35" t="n">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>96.09%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1624</v>
+        <v>45711</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>192.168.31.0/24</t>
+          <t>192.168.0.0/29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Balanceo interno</t>
+          <t>DC_01-VLAN0192 (RAC)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1587</v>
+        <v>45855</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>192.168.34.0/24</t>
+          <t>192.168.0.8/29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DMZ1 Calidad</t>
+          <t>DC_01-VLAN0193 (RAC)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1532</v>
+        <v>45858</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>192.168.37.0/24</t>
+          <t>192.168.0.16/29</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Element Management</t>
+          <t>DC_01-VLAN0194 (RAC)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1535</v>
+        <v>45861</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>192.168.38.0/24</t>
+          <t>192.168.0.32/29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>DC_01-VLAN0197 (RAC)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1538</v>
+        <v>45769</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>192.168.39.0/24</t>
+          <t>192.168.20.0/28</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>vMotion</t>
+          <t>DC_01-DMZ Sello de tiempo</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>87.5%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1550</v>
+        <v>45772</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>192.168.40.0/24</t>
+          <t>192.168.20.24/30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DMZ2 actual</t>
+          <t xml:space="preserve">DC_01-HA-Balanceadores Solución RPA </t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1553</v>
+        <v>45598</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>192.168.41.0/24</t>
+          <t>192.168.30.0/24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DMZ Funcionarios</t>
+          <t>DC_01-DMZ1</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>256</v>
       </c>
       <c r="E42" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>78.12%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1541</v>
+        <v>45655</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>192.168.43.8/29</t>
+          <t>192.168.31.0/24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ruteo DMZ a NUBE</t>
+          <t>DC_01-Balanceo interno</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>86.33%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1544</v>
+        <v>43581</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>192.168.43.16/28</t>
+          <t>192.168.34.0/24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Telefonia IP DMZ</t>
+          <t>DC_01-DMZ1 Calidad</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E44" t="n">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>85.16%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1590</v>
+        <v>45382</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>192.168.44.0/24</t>
+          <t>192.168.37.0/24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DMZ2 Calidad</t>
+          <t>DC_01-Element Management</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>256</v>
       </c>
       <c r="E45" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1596</v>
+        <v>45864</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>192.168.46.0/24</t>
+          <t>192.168.38.0/24</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DMZ1 Desarrollo</t>
+          <t>DC_01-Management</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>256</v>
       </c>
       <c r="E46" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>96.88%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1611</v>
+        <v>45873</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>192.168.55.0/24</t>
+          <t>192.168.39.0/24</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>desa_adu</t>
+          <t>DC_01-vMotion</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>256</v>
       </c>
       <c r="E47" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1599</v>
+        <v>45879</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>192.168.56.0/24</t>
+          <t>192.168.40.0/24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DMZ2 Desarrollo</t>
+          <t>DC_01-DMZ2 actual</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>256</v>
       </c>
       <c r="E48" t="n">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>53.12%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1614</v>
+        <v>45794</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>192.168.60.0/24</t>
+          <t>192.168.41.0/24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Extranet_Terceros (terceros)</t>
+          <t>DC_01-DMZ Funcionarios</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>256</v>
       </c>
       <c r="E49" t="n">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>85.94%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1556</v>
+        <v>45590</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>192.168.64.0/22</t>
+          <t>192.168.43.8/29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DMZ2 nueva</t>
+          <t>DC_01-Ruteo DMZ a NUBE</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>1022</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1584</v>
+        <v>46000</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>192.168.68.0/24</t>
+          <t>192.168.43.16/28</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hosting</t>
+          <t>DC_01-Telefonia IP DMZ</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>87.5%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1648</v>
+        <v>45388</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>192.168.69.0/25</t>
+          <t>192.168.44.0/24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ManagePURE</t>
+          <t>DC_01-DMZ2 Calidad</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E52" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>22.66%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1621</v>
+        <v>46003</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>192.168.70.0/24</t>
+          <t>192.168.46.0/24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cabinas</t>
+          <t>DC_01-DMZ1 Desarrollo</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>256</v>
       </c>
       <c r="E53" t="n">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>88.67%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1627</v>
+        <v>46033</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>192.168.71.0/28</t>
+          <t>192.168.55.0/24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Exchange NLB</t>
+          <t>DC_01-desa_adu</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>97.66%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1630</v>
+        <v>43373</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>192.168.71.16/28</t>
+          <t>192.168.56.0/24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Exchange DAG1</t>
+          <t>DC_01-DMZ2 Desarrollo</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>19.14%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1633</v>
+        <v>46040</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>192.168.71.32/28</t>
+          <t>192.168.60.0/24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Exchange DAG2</t>
+          <t>DC_01-Extranet_Terceros (terceros)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1636</v>
+        <v>43985</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>192.168.71.64/27</t>
+          <t>192.168.64.0/22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>VMWARE</t>
+          <t>DC_01-DMZ2 nueva</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>93.75%</t>
+          <t>31.25%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1639</v>
+        <v>43620</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>192.168.71.96/28</t>
+          <t>192.168.68.0/24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BBDD Power8</t>
+          <t>DC_01-Hosting</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>89.84%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1645</v>
+        <v>46043</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>192.168.71.112/29</t>
+          <t>192.168.69.0/25</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ORACLE_TEST</t>
+          <t>DC_01-ManagePURE</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>63.28%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1663</v>
+        <v>46091</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>192.168.195.0/25</t>
+          <t>192.168.70.0/24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DMZ OSE</t>
+          <t>DC_01-Cabinas</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E60" t="n">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1672</v>
+        <v>46094</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>192.168.245.0/29</t>
+          <t>192.168.71.0/28</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DMZ1_Capital</t>
+          <t>DC_01-Exchange NLB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1675</v>
+        <v>46101</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>192.168.245.8/29</t>
+          <t>192.168.71.16/28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DMZ1_intra_Capital</t>
+          <t>DC_01-Exchange DAG1</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1678</v>
+        <v>46148</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>192.168.245.16/28</t>
+          <t>192.168.71.32/28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DMZ2_Capital</t>
+          <t>DC_01-Exchange DAG2</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1681</v>
+        <v>46105</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>192.168.245.32/28</t>
+          <t>192.168.71.64/27</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DMZBD_Capital</t>
+          <t>DC_01-VMWARE</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>84.38%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1684</v>
+        <v>45831</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>192.168.245.128/28</t>
+          <t>192.168.71.96/28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DMZBD_Capital_DC</t>
+          <t>DC_01-BBDD Power8</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2131,536 +2131,536 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1666</v>
+        <v>45834</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>192.168.250.0/24</t>
+          <t>192.168.71.112/29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Gestion remota - Terceros</t>
+          <t>DC_01-ORACLE_TEST</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1669</v>
+        <v>45837</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>192.168.251.0/24</t>
+          <t>192.168.195.0/25</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fabrica Cosapi DMZ - Tercero</t>
+          <t>DC_01-DMZ OSE</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E67" t="n">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>96.09%</t>
+          <t>86.72%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2267</v>
+        <v>45714</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>150.100.0.0/16</t>
+          <t>192.168.245.0/29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Servidores</t>
+          <t>DC_01-DMZ1_Capital</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>65536</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2270</v>
+        <v>45723</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>172.16.4.0/22</t>
+          <t>192.168.245.8/29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Interna BD producción</t>
+          <t>DC_01-DMZ1_intra_Capital</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>1022</v>
+        <v>2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2408</v>
+        <v>46111</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>172.16.16.0/24</t>
+          <t>192.168.245.16/28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-Mgmt</t>
+          <t>DC_01-DMZ2_Capital</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2414</v>
+        <v>45730</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>172.16.21.0/24</t>
+          <t>192.168.245.32/28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-vMotion</t>
+          <t>DC_01-DMZBD_Capital</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>31.25%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2417</v>
+        <v>46126</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>172.16.22.0/24</t>
+          <t>192.168.245.128/28</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-VTEP_VXLAN</t>
+          <t>DC_01-DMZBD_Capital_DC</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>31.25%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2426</v>
+        <v>46138</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>172.16.23.0/25</t>
+          <t>192.168.250.0/24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MENTA - Dynatrace_Colectores</t>
+          <t>DC_01-Gestion remota - Terceros</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E73" t="n">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2405</v>
+        <v>46141</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>172.16.23.128/29</t>
+          <t>192.168.251.0/24</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MENTA - BGP-Edge</t>
+          <t>DC_01-Fabrica Cosapi DMZ - Tercero</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>97.66%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2420</v>
+        <v>38076</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>172.16.23.160/28</t>
+          <t>192.168.120.0/24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MENTA - Uplink01</t>
+          <t>vnet001-cpep-sbx-eu1</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2423</v>
+        <v>38141</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>172.16.23.192/28</t>
+          <t>172.29.2.128/25</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MENTA - Uplink02</t>
+          <t>vnet001-cpeaks-qa1-eu1</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2411</v>
+        <v>38146</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>172.16.23.224/28</t>
+          <t>192.168.118.0/24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MENTA - SDDC-DPortGroup-VSAN</t>
+          <t>vnet001-cpep-qa1-eu1</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2330</v>
+        <v>653</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>172.16.247.0/24</t>
+          <t>10.5.64.0/22</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DMZ2 Insumos Quimicos</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E78" t="n">
-        <v>254</v>
+        <v>1017</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.32%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2273</v>
+        <v>657</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>172.17.4.0/22</t>
+          <t>10.5.72.0/23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Interna no BD producción</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="E79" t="n">
-        <v>1022</v>
+        <v>507</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2318</v>
+        <v>661</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>172.18.2.0/24</t>
+          <t>10.5.74.0/24</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Interna Calidad</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>256</v>
       </c>
       <c r="E80" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2321</v>
+        <v>641</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>172.18.4.0/24</t>
+          <t>10.5.75.0/24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Interna Desarrollo</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>256</v>
       </c>
       <c r="E81" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>96.88%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2276</v>
+        <v>645</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>172.19.8.0/21</t>
+          <t>10.5.80.0/22</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Gestion</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="E82" t="n">
-        <v>2000</v>
+        <v>1014</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>97.66%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2282</v>
+        <v>637</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>172.19.17.0/24</t>
+          <t>10.5.84.0/22</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Respaldo Servidores Fisicos</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E83" t="n">
-        <v>254</v>
+        <v>832</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2285</v>
+        <v>621</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>172.19.18.128/26</t>
+          <t>10.5.88.0/24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Respaldo Servidores Virtuales_LAN</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E84" t="n">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>96.88%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2288</v>
+        <v>625</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>172.19.18.192/26</t>
+          <t>10.5.89.0/24</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Respaldo Servidores Virtuales_DMZ</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E85" t="n">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>96.88%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2279</v>
+        <v>629</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>172.19.21.0/24</t>
+          <t>10.5.90.0/24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gestion_excepcion</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2677,94 +2677,94 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2351</v>
+        <v>649</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>172.19.22.16/28</t>
+          <t>10.200.5.0/24</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GESTION POWER 9</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>83.59%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2315</v>
+        <v>18038</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>172.26.8.0/21</t>
+          <t>10.6.64.0/22</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DMZ2 1 Desarrollo</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="E88" t="n">
-        <v>2000</v>
+        <v>1019</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>97.66%</t>
+          <t>99.51%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2306</v>
+        <v>18041</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>172.27.8.0/21</t>
+          <t>10.6.72.0/23</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DMZ2 3 Calidad</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="E89" t="n">
-        <v>2000</v>
+        <v>507</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>97.66%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2291</v>
+        <v>18044</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>172.30.2.0/24</t>
+          <t>10.6.74.0/24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Callcenter</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2781,432 +2781,432 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2360</v>
+        <v>18029</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>192.168.2.0/29</t>
+          <t>10.6.75.0/24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VLAN0192 (RAC)</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>96.48%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2363</v>
+        <v>18032</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>192.168.2.8/29</t>
+          <t>10.6.80.0/24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VLAN0193 (RAC)</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>97.27%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2366</v>
+        <v>18026</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>192.168.2.16/29</t>
+          <t>10.6.84.0/22</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VLAN0194 (RAC)</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>875</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>85.45%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2369</v>
+        <v>18014</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>192.168.2.32/29</t>
+          <t>10.6.88.0/24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VLAN0197 (RAC)</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2234</v>
+        <v>18017</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>192.168.20.128/28</t>
+          <t>10.6.89.0/24</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DMZ Sello de tiempo</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2237</v>
+        <v>18020</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>192.168.20.192/28</t>
+          <t>10.6.90.0/24</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sistema de CCTV - CenturyLink</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>97.66%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2255</v>
+        <v>18035</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>192.168.32.0/24</t>
+          <t>10.200.6.0/24</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DMZ1</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>256</v>
       </c>
       <c r="E97" t="n">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>84.77%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2333</v>
+        <v>18011</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>192.168.33.0/24</t>
+          <t>10.209.6.0/27</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Balanceo interno</t>
+          <t>Radioenlaces</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E98" t="n">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>62.5%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2300</v>
+        <v>18363</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>192.168.35.0/24</t>
+          <t>10.7.0.0/18</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DMZ2 1 Calidad</t>
+          <t>Redes Usuarios</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>256</v>
+        <v>16384</v>
       </c>
       <c r="E99" t="n">
-        <v>254</v>
+        <v>2000</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>12.21%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2297</v>
+        <v>18381</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>192.168.36.0/24</t>
+          <t>10.7.64.0/22</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DMZ1 Calidad</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E100" t="n">
-        <v>254</v>
+        <v>1019</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.51%</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2258</v>
+        <v>18384</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>192.168.42.0/24</t>
+          <t>10.7.72.0/23</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DMZ2 actual</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E101" t="n">
-        <v>254</v>
+        <v>507</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2249</v>
+        <v>18387</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>192.168.43.128/29</t>
+          <t>10.7.74.0/24</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ruteo DMZ a NUBE</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2252</v>
+        <v>18369</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>192.168.43.144/28</t>
+          <t>10.7.75.0/24</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Telefonia IP DMZ</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2261</v>
+        <v>18375</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>192.168.47.0/24</t>
+          <t>10.7.80.0/22</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DMZ Funcionarios</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E104" t="n">
-        <v>254</v>
+        <v>1020</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.61%</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2243</v>
+        <v>18366</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>192.168.48.0/24</t>
+          <t>10.7.84.0/22</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E105" t="n">
-        <v>254</v>
+        <v>1014</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2246</v>
+        <v>18354</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>192.168.49.0/24</t>
+          <t>10.7.88.0/24</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>vMotion</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v>256</v>
       </c>
       <c r="E106" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2240</v>
+        <v>18357</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>192.168.51.0/24</t>
+          <t>10.7.89.0/24</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Element Management</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3223,16 +3223,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2309</v>
+        <v>18360</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>192.168.57.0/24</t>
+          <t>10.7.90.0/24</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DMZ1 Desarrollo</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3249,276 +3249,276 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2312</v>
+        <v>18372</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>192.168.58.0/24</t>
+          <t>10.7.91.0/24</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DMZ2 Desarrollo</t>
+          <t>Equipos rayos X</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>256</v>
       </c>
       <c r="E109" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2324</v>
+        <v>18378</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>192.168.61.0/24</t>
+          <t>10.200.7.0/24</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Extranet_Terceros (SUNAT)</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>256</v>
       </c>
       <c r="E110" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>94.92%</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2303</v>
+        <v>19380</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>192.168.66.0/24</t>
+          <t>10.46.64.0/22</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DMZ2 2 Calidad</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E111" t="n">
-        <v>254</v>
+        <v>1017</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.32%</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2357</v>
+        <v>19383</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>192.168.69.128/25</t>
+          <t>10.46.72.0/23</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ManagePURE</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E112" t="n">
-        <v>126</v>
+        <v>507</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2336</v>
+        <v>19386</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>192.168.71.128/28</t>
+          <t>10.46.74.0/24</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Exchange NLB</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E113" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2339</v>
+        <v>19371</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>192.168.71.144/28</t>
+          <t>10.46.75.0/24</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Exchange DAG1</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>96.48%</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2342</v>
+        <v>19374</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>192.168.71.160/28</t>
+          <t>10.46.80.0/22</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Exchange DAG2</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>1018</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.41%</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2345</v>
+        <v>19368</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>192.168.71.192/27</t>
+          <t>10.46.84.0/22</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>VMWARE</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E116" t="n">
-        <v>30</v>
+        <v>953</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>93.75%</t>
+          <t>93.07%</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2348</v>
+        <v>19356</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>192.168.71.224/28</t>
+          <t>10.46.88.0/24</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BBDD Power8</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E117" t="n">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2354</v>
+        <v>19359</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>192.168.71.240/29</t>
+          <t>10.46.89.0/24</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ORACLE_TEST</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2294</v>
+        <v>19362</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>192.168.78.0/24</t>
+          <t>10.46.90.0/24</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Hosting</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3535,276 +3535,276 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2264</v>
+        <v>19377</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>192.168.84.0/22</t>
+          <t>10.200.46.0/24</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DMZ2 nueva</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E120" t="n">
-        <v>1022</v>
+        <v>235</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>91.8%</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2372</v>
+        <v>19353</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>192.168.195.128/25</t>
+          <t>10.209.46.0/27</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DMZ OSE</t>
+          <t>Radioenlaces</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E121" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>71.88%</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2327</v>
+        <v>21723</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>192.168.198.0/23</t>
+          <t>10.59.64.0/22</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DMZ_Extranet</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="E122" t="n">
-        <v>510</v>
+        <v>1017</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>99.61%</t>
+          <t>99.32%</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2384</v>
+        <v>21726</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>192.168.245.48/29</t>
+          <t>10.59.72.0/23</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DMZ1_Capital</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="E123" t="n">
-        <v>6</v>
+        <v>507</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2387</v>
+        <v>21729</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>192.168.245.56/29</t>
+          <t>10.59.74.0/24</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DMZ1_intra_Capital</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E124" t="n">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2390</v>
+        <v>21714</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>192.168.245.64/28</t>
+          <t>10.59.75.0/24</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DMZ2_Capital</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E125" t="n">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>96.48%</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2393</v>
+        <v>21717</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>192.168.245.80/28</t>
+          <t>10.59.80.0/22</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DMZBD_Capital</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="E126" t="n">
-        <v>14</v>
+        <v>1015</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.12%</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2396</v>
+        <v>21711</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>192.168.245.96/29</t>
+          <t>10.59.84.0/22</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DMZ1_Capital_DC</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>948</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>92.58%</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2399</v>
+        <v>21699</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>192.168.245.104/29</t>
+          <t>10.59.88.0/24</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DMZ1_intra_Capital_DC</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2402</v>
+        <v>21702</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>192.168.245.112/28</t>
+          <t>10.59.89.0/24</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DMZ2_Capital_DC</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="E129" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2378</v>
+        <v>21705</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>192.168.247.0/24</t>
+          <t>10.59.90.0/24</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Fabrica Cosapi DMZ - Tercero</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3821,146 +3821,146 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2375</v>
+        <v>21720</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>192.168.252.0/24</t>
+          <t>10.200.59.0/24</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Gestion remota - Terceros</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v>256</v>
       </c>
       <c r="E131" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>96.09%</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2381</v>
+        <v>21696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>192.168.253.0/24</t>
+          <t>10.209.59.0/27</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fabrica Cosapi BD - Tercero</t>
+          <t>Radioenlaces</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E132" t="n">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>84.38%</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3230</v>
+        <v>22812</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10.6.0.0/18</t>
+          <t>10.94.64.0/22</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Redes Usuarios</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="E133" t="n">
-        <v>2000</v>
+        <v>1022</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>12.21%</t>
+          <t>99.8%</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3245</v>
+        <v>22815</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>10.6.64.0/22</t>
+          <t>10.94.72.0/23</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>WIFI - Red WIRAQOCHA</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="E134" t="n">
-        <v>1022</v>
+        <v>510</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>99.61%</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3248</v>
+        <v>22818</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>10.6.72.0/23</t>
+          <t>10.94.74.0/24</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>WIFI - Red AYNI_GUEST</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E135" t="n">
-        <v>510</v>
+        <v>254</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>99.61%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3251</v>
+        <v>22803</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>10.6.74.0/24</t>
+          <t>10.94.75.0/24</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>WIFI - Red ALMACEN</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3977,94 +3977,94 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3236</v>
+        <v>22806</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10.6.75.0/24</t>
+          <t>10.94.80.0/22</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Telefonía IP - Centrales</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E137" t="n">
-        <v>254</v>
+        <v>1022</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.8%</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3239</v>
+        <v>22800</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>10.6.80.0/24</t>
+          <t>10.94.84.0/22</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Usuarios</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E138" t="n">
-        <v>254</v>
+        <v>1017</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.32%</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3233</v>
+        <v>22788</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>10.6.84.0/22</t>
+          <t>10.94.88.0/24</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Telefonía IP</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E139" t="n">
-        <v>1022</v>
+        <v>254</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3221</v>
+        <v>22791</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>10.6.88.0/24</t>
+          <t>10.94.89.0/24</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Videoconferencia</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4081,16 +4081,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3224</v>
+        <v>22794</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>10.6.89.0/24</t>
+          <t>10.94.90.0/24</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Camaras IP</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4107,250 +4107,250 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3227</v>
+        <v>22809</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>10.6.90.0/24</t>
+          <t>10.200.94.0/24</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Visualización Camaras</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D142" t="n">
         <v>256</v>
       </c>
       <c r="E142" t="n">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>96.48%</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>3242</v>
+        <v>21654</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10.200.6.0/24</t>
+          <t>10.57.64.0/22</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Redes Impresoras</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E143" t="n">
-        <v>254</v>
+        <v>1019</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.51%</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3218</v>
+        <v>21657</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>10.209.6.0/27</t>
+          <t>10.57.72.0/23</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Radioenlaces</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="E144" t="n">
-        <v>30</v>
+        <v>507</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>93.75%</t>
+          <t>99.02%</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3153</v>
+        <v>21660</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10.10.128.0/24</t>
+          <t>10.57.74.0/24</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>vlan128</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D145" t="n">
         <v>256</v>
       </c>
       <c r="E145" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>98.83%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3156</v>
+        <v>21645</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10.10.129.0/24</t>
+          <t>10.57.75.0/24</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vlan_129</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v>256</v>
       </c>
       <c r="E146" t="n">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>96.48%</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3168</v>
+        <v>21648</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10.10.141.0/24</t>
+          <t>10.57.80.0/22</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>VLAN_141</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E147" t="n">
-        <v>254</v>
+        <v>1019</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.51%</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3193</v>
+        <v>21642</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>10.5.0.0/18</t>
+          <t>10.57.84.0/22</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Redes Usuarios</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>16384</v>
+        <v>1024</v>
       </c>
       <c r="E148" t="n">
-        <v>2000</v>
+        <v>1015</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>12.21%</t>
+          <t>99.12%</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3208</v>
+        <v>21630</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>10.5.64.0/22</t>
+          <t>10.57.88.0/24</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>WIFI - Red WIRAQOCHA</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E149" t="n">
-        <v>1022</v>
+        <v>251</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>98.05%</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3211</v>
+        <v>21633</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>10.5.72.0/23</t>
+          <t>10.57.89.0/24</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>WIFI - Red AYNI_GUEST</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E150" t="n">
-        <v>510</v>
+        <v>254</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>99.61%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3214</v>
+        <v>21636</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10.5.74.0/24</t>
+          <t>10.57.90.0/24</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>WIFI - Red ALMACEN</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -4367,94 +4367,94 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3199</v>
+        <v>21651</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10.5.75.0/24</t>
+          <t>10.200.57.0/24</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Telefonía IP - Centrales</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>256</v>
       </c>
       <c r="E152" t="n">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>96.48%</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3202</v>
+        <v>19344</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10.5.80.0/22</t>
+          <t>10.45.64.0/22</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Usuarios</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D153" t="n">
         <v>1024</v>
       </c>
       <c r="E153" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>99.61%</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3196</v>
+        <v>19347</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>10.5.84.0/22</t>
+          <t>10.45.72.0/23</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Telefonía IP</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="E154" t="n">
-        <v>1022</v>
+        <v>509</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>99.41%</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3184</v>
+        <v>19350</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10.5.88.0/24</t>
+          <t>10.45.74.0/24</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Videoconferencia</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4471,16 +4471,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3187</v>
+        <v>19335</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>10.5.89.0/24</t>
+          <t>10.45.75.0/24</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Camaras IP</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -4497,94 +4497,94 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3190</v>
+        <v>19338</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10.5.90.0/24</t>
+          <t>10.45.80.0/22</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Visualización Camaras</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E157" t="n">
-        <v>254</v>
+        <v>1022</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.8%</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3205</v>
+        <v>19332</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>10.200.5.0/24</t>
+          <t>10.45.84.0/22</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Redes Impresoras</t>
+          <t>Telefonía IP</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E158" t="n">
-        <v>254</v>
+        <v>1003</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>97.95%</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2945</v>
+        <v>19320</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10.4.0.0/18</t>
+          <t>10.45.88.0/24</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Chucuito Redes Usuarios</t>
+          <t>Videoconferencia</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>16384</v>
+        <v>256</v>
       </c>
       <c r="E159" t="n">
-        <v>2000</v>
+        <v>253</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>12.21%</t>
+          <t>98.83%</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2951</v>
+        <v>19323</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>10.4.75.0/24</t>
+          <t>10.45.89.0/24</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Chucuito Telefonía IP - Centrales</t>
+          <t>Camaras IP</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4601,120 +4601,120 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2948</v>
+        <v>19326</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10.4.84.0/22</t>
+          <t>10.45.90.0/24</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Chucuito Telefonía IP</t>
+          <t>Visualización Camaras</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E161" t="n">
-        <v>1022</v>
+        <v>254</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3177</v>
+        <v>19341</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>10.4.88.0/24</t>
+          <t>10.200.45.0/24</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Chucuito Videoconferencia</t>
+          <t>Redes Impresoras</t>
         </is>
       </c>
       <c r="D162" t="n">
         <v>256</v>
       </c>
       <c r="E162" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>97.66%</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2936</v>
+        <v>22410</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>10.4.88.0/24</t>
+          <t>10.82.64.0/22</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Videoconferencia</t>
+          <t>WIFI - Red WIRAQOCHA</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="E163" t="n">
-        <v>254</v>
+        <v>1022</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.8%</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2939</v>
+        <v>22413</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10.4.89.0/24</t>
+          <t>10.82.72.0/23</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Chucuito Camaras IP</t>
+          <t>WIFI - Red AYNI_GUEST</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E164" t="n">
-        <v>254</v>
+        <v>510</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.61%</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2942</v>
+        <v>22416</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>10.4.90.0/24</t>
+          <t>10.82.74.0/24</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Chucuito Visualización Camaras</t>
+          <t>WIFI - Red ALMACEN</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4731,79 +4731,1489 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3163</v>
+        <v>22401</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10.10.220.0/24</t>
+          <t>10.82.75.0/24</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Vlan220</t>
+          <t>Telefonía IP - Centrales</t>
         </is>
       </c>
       <c r="D166" t="n">
         <v>256</v>
       </c>
       <c r="E166" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>98.44%</t>
+          <t>99.22%</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3174</v>
+        <v>22404</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>10.209.4.0/27</t>
+          <t>10.82.80.0/22</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Chucuito Radioenlaces</t>
+          <t>Usuarios</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E167" t="n">
-        <v>30</v>
+        <v>1019</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>93.75%</t>
+          <t>99.51%</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2933</v>
+        <v>22398</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>10.82.84.0/22</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Telefonía IP</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>99.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>10.82.88.0/24</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>256</v>
+      </c>
+      <c r="E169" t="n">
+        <v>251</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>98.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>22389</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>10.82.89.0/24</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Camaras IP</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>256</v>
+      </c>
+      <c r="E170" t="n">
+        <v>254</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>22392</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>10.82.90.0/24</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Visualización Camaras</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>256</v>
+      </c>
+      <c r="E171" t="n">
+        <v>254</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>22407</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>10.200.82.0/24</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Redes Impresoras</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>256</v>
+      </c>
+      <c r="E172" t="n">
+        <v>250</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>97.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>22476</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>10.84.64.0/22</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>WIFI - Red WIRAQOCHA</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>99.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>22479</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>10.84.72.0/23</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>WIFI - Red AYNI_GUEST</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>512</v>
+      </c>
+      <c r="E174" t="n">
+        <v>507</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>99.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>22482</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>10.84.74.0/24</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>WIFI - Red ALMACEN</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>256</v>
+      </c>
+      <c r="E175" t="n">
+        <v>251</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>98.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>22467</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>10.84.75.0/24</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Telefonía IP - Centrales</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>256</v>
+      </c>
+      <c r="E176" t="n">
+        <v>247</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>96.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>22470</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>10.84.80.0/22</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Usuarios</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1019</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>99.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>22464</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>10.84.84.0/22</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Telefonía IP</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E178" t="n">
+        <v>963</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>94.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>22452</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10.84.88.0/24</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>256</v>
+      </c>
+      <c r="E179" t="n">
+        <v>250</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>97.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>22455</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>10.84.89.0/24</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Camaras IP</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>256</v>
+      </c>
+      <c r="E180" t="n">
+        <v>254</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>22458</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>10.84.90.0/24</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Visualización Camaras</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>256</v>
+      </c>
+      <c r="E181" t="n">
+        <v>254</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>22473</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>10.200.84.0/24</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Redes Impresoras</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>256</v>
+      </c>
+      <c r="E182" t="n">
+        <v>250</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>97.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>603</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10.4.64.0/22</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Chucuito_WIFI - Red WIRAQOCHA</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>98.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>607</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10.4.72.0/23</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>WIFI - Red AYNI_GUEST</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>512</v>
+      </c>
+      <c r="E184" t="n">
+        <v>505</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>98.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>611</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>10.4.74.0/24</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>WIFI - Red ALMACEN</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>256</v>
+      </c>
+      <c r="E185" t="n">
+        <v>254</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>591</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>10.4.75.0/24</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Chucuito Telefonía IP - Centrales</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>256</v>
+      </c>
+      <c r="E186" t="n">
+        <v>247</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>96.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>615</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>10.4.76.0/23</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>WIFI - IAT</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>512</v>
+      </c>
+      <c r="E187" t="n">
+        <v>507</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>99.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>38562</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10.4.78.0/23</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>10.4.78.0/23 from 10.4.13.1</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>512</v>
+      </c>
+      <c r="E188" t="n">
+        <v>510</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>99.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>595</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>10.4.80.0/22</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Usuarios</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1019</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>99.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>587</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10.4.84.0/22</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Chucuito Telefonía IP</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E190" t="n">
+        <v>667</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>65.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>571</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>10.4.88.0/24</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Videoconferencia</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>256</v>
+      </c>
+      <c r="E191" t="n">
+        <v>248</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>96.88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>575</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>10.4.89.0/24</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Chucuito Camaras IP</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>256</v>
+      </c>
+      <c r="E192" t="n">
+        <v>254</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>579</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>10.4.90.0/24</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Chucuito Visualización Camaras</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>256</v>
+      </c>
+      <c r="E193" t="n">
+        <v>254</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>599</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>10.200.4.0/24</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Redes Impresoras</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>256</v>
+      </c>
+      <c r="E194" t="n">
+        <v>202</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>78.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>39692</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10.201.4.0/24</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>10.201.4.0/24 from 10.4.13.1</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>256</v>
+      </c>
+      <c r="E195" t="n">
+        <v>252</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>98.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>567</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
           <t>10.209.4.0/27</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Radioenlaces</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D196" t="n">
         <v>32</v>
       </c>
-      <c r="E168" t="n">
-        <v>30</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>93.75%</t>
+      <c r="E196" t="n">
+        <v>20</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>39704</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10.230.4.16/29</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>10.230.4.16/29 from 10.4.13.1</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>39701</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>10.3.0.0/18</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>10.3.0.0/18 from 10.3.1.2</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>16384</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>12.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>39697</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10.3.0.0/18</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Redes Usuarios</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>16384</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>12.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>37947</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10.3.64.0/22</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Wilson_WIFI - Red WIRAQOCHA</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>99.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>37950</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>10.3.72.0/23</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Wilson_WIFI - Red AYNI_GUEST</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>512</v>
+      </c>
+      <c r="E201" t="n">
+        <v>510</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>99.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>37953</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>10.3.74.0/24</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Wilson_WIFI - Red ALMACEN</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>256</v>
+      </c>
+      <c r="E202" t="n">
+        <v>251</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>98.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>37944</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>10.3.75.0/24</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Wilson_Telefonía IP - Centrales</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>256</v>
+      </c>
+      <c r="E203" t="n">
+        <v>254</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>38538</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10.3.76.0/24</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>10.3.76.0/24 from 10.3.1.2</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>256</v>
+      </c>
+      <c r="E204" t="n">
+        <v>254</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>37941</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>10.3.84.0/22</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Wilson_Telefonía IP</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E205" t="n">
+        <v>187</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>18.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>37932</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>10.3.89.0/24</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Wilson_Cámaras IPs</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>256</v>
+      </c>
+      <c r="E206" t="n">
+        <v>254</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>37938</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10.3.90.0/24</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Wilson_Visualización Camaras</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>256</v>
+      </c>
+      <c r="E207" t="n">
+        <v>254</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>37935</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>10.200.3.0/24</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Wilson_Redes Impresoras</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>256</v>
+      </c>
+      <c r="E208" t="n">
+        <v>254</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>99.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>561</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>10.209.3.0/24</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Wilson_Videoconferencia</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>256</v>
+      </c>
+      <c r="E209" t="n">
+        <v>246</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>96.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>557</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>10.209.3.0/27</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Wilson_Radioenlaces</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>32</v>
+      </c>
+      <c r="E210" t="n">
+        <v>22</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>37898</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2800:120:1102:b::/64</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>DC_01-Optical_IPv6</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>37901</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2800:cc0:6020:7::/65</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>DC_01-Viettel_IPv6</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>37904</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2800:120:1102:a::/64</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>DC_02-Optical_IPv6</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>37907</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2800:cc0:6020:7:8000::/65</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>DC_02-Viettel_IPv6</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>37833</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>161.132.21.0/25</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>DC_01-Optical_Public</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>128</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>37836</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>181.176.144.0/25</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>DC_01-Yachay_Public</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>128</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>37829</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>191.98.162.0/25</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DC_01-Viettel_Public</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>128</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>37842</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>161.132.21.128/25</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DC_02-Optical_Public</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>128</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>37845</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>181.176.144.128/25</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DC_02-Yachay_Public</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>128</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>37839</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>191.98.162.128/25</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>DC_02-Viettel_Public</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>128</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>46513</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>10.10.190.0/24</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>TEST_NET_05_01</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>256</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>46516</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>10.10.191.0/24</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>TEST_NET_01_05_2</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>256</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
